--- a/data/hotels_by_city/Houston/Houston_shard_677.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_677.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1382899-Reviews-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-WoodSpring-Suites-Houston-I-10-West.h2133713.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,551 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r524650501-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1382899</t>
+  </si>
+  <si>
+    <t>524650501</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>5 Star customer service!</t>
+  </si>
+  <si>
+    <t>I am presently staying here due to Hurricane Harvey. These are very stressful times for everyone. The hotel manager, Janice Todd-Jordon, and her staff deserve an award for the accommodating, professional and friendly service that they have exhibited. With a housekeeping staff trying to save their own belongings due to the flood, management stepped in to cover their jobs. On top of that, the elevator was down for 5 days. For 5 days the staff had to carry all of their equipment up and down the stairs (4 floors) to keep up with the demand. I never heard one person complain - only friendly smiles on their faces. My room was extremely clean and comfortable. Hats off to Janice Todd-Jordon and her staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Janice T, Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>I am presently staying here due to Hurricane Harvey. These are very stressful times for everyone. The hotel manager, Janice Todd-Jordon, and her staff deserve an award for the accommodating, professional and friendly service that they have exhibited. With a housekeeping staff trying to save their own belongings due to the flood, management stepped in to cover their jobs. On top of that, the elevator was down for 5 days. For 5 days the staff had to carry all of their equipment up and down the stairs (4 floors) to keep up with the demand. I never heard one person complain - only friendly smiles on their faces. My room was extremely clean and comfortable. Hats off to Janice Todd-Jordon and her staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r520094918-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520094918</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Avoid at all costr</t>
+  </si>
+  <si>
+    <t>Worst place hotel I have ever stayed at. The dirtiest hotel in Yangon trumps it. Dirty rooms. Rude staff with piercings. Very appalling customer service. Questionable characters loitering around. No breakfast. During hurricane Harvey, the hotel hiked the prices at one occasion for the cheapest room to over $70 per night whereas other hotels in the area kept their price steady. Despicable greed.The hotel is a total disappointment. Room cleaning is non existent. Free wifi sketchy however premium wifi has to be paid for. Granted this hotel may appeal to a certain demographic in the society but it will not address respectful members of the community. Business travelers , please stay away.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Worst place hotel I have ever stayed at. The dirtiest hotel in Yangon trumps it. Dirty rooms. Rude staff with piercings. Very appalling customer service. Questionable characters loitering around. No breakfast. During hurricane Harvey, the hotel hiked the prices at one occasion for the cheapest room to over $70 per night whereas other hotels in the area kept their price steady. Despicable greed.The hotel is a total disappointment. Room cleaning is non existent. Free wifi sketchy however premium wifi has to be paid for. Granted this hotel may appeal to a certain demographic in the society but it will not address respectful members of the community. Business travelers , please stay away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r511150615-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511150615</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>Ms. Kisha is truly a sweetheart very polite(on the phone and in person) very sweet made me feel at home away from home(Memphis). Thank you so   much. When I'm in town again I'll definitely stay at Wood Spring.MoreShow less</t>
+  </si>
+  <si>
+    <t>Janice T, General Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Ms. Kisha is truly a sweetheart very polite(on the phone and in person) very sweet made me feel at home away from home(Memphis). Thank you so   much. When I'm in town again I'll definitely stay at Wood Spring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r459382602-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459382602</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Vastly improved</t>
+  </si>
+  <si>
+    <t>In the switch from ValuePlace to WoodSpring Suites this motel has vastly improved. I repeatedly gave VP just 1 star.  The towels are plush (used to feel like loofas). The elevator works (out 2 years at VP). Internet is a bit slow but it's free. Laundry room and machines are cleaner. The look and decor are not KMart meets Dollar General any more. The colors are so nice I guarantee a woman picked them out. I'm a guy but I appreciate the small things. You get soap and shampoo now. Their prices will rise so it remains to see how much. Right now $309/week and $1199/month are very competitive for their base rooms. If their kitchette had an oven it would open a bigger market. The microwave, stovetop, sink and full sized refrigerator - freezer are good. Just know that the 800 watt microwave takes 5-6 minutes to heat a 4 minute item. They do offer a dish pack and cooking pans for purchase. Their big drawback is NO Coffee Pot. Come on guys. Everyplace has a coffee maker. A good 3 stars with potential to jump to 4 if the coffee maker, low wattage microwave and oven issues are corrected.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>In the switch from ValuePlace to WoodSpring Suites this motel has vastly improved. I repeatedly gave VP just 1 star.  The towels are plush (used to feel like loofas). The elevator works (out 2 years at VP). Internet is a bit slow but it's free. Laundry room and machines are cleaner. The look and decor are not KMart meets Dollar General any more. The colors are so nice I guarantee a woman picked them out. I'm a guy but I appreciate the small things. You get soap and shampoo now. Their prices will rise so it remains to see how much. Right now $309/week and $1199/month are very competitive for their base rooms. If their kitchette had an oven it would open a bigger market. The microwave, stovetop, sink and full sized refrigerator - freezer are good. Just know that the 800 watt microwave takes 5-6 minutes to heat a 4 minute item. They do offer a dish pack and cooking pans for purchase. Their big drawback is NO Coffee Pot. Come on guys. Everyplace has a coffee maker. A good 3 stars with potential to jump to 4 if the coffee maker, low wattage microwave and oven issues are corrected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r449303403-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449303403</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Great Value - Very Clean</t>
+  </si>
+  <si>
+    <t>I have stayed at a few different Value Places in my travels and this is one of the better ones. Very friendly staff. Very clean. Great value for extended stay. I was there 9 days on a work project. I then had to go to Austin TX for 7 days and stayed at a sister property of this one and had a very nice stay there as well,MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at a few different Value Places in my travels and this is one of the better ones. Very friendly staff. Very clean. Great value for extended stay. I was there 9 days on a work project. I then had to go to Austin TX for 7 days and stayed at a sister property of this one and had a very nice stay there as well,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r376913843-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376913843</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Nothing works including the hotel staff.</t>
+  </si>
+  <si>
+    <t>Elevator doesn't work including the hotel staff.  The hotel staff looks for a reason not to do something. Value Place nickels and dimes guests for additional funds for pots and pans and dishes, internet service, room cleaning etc. The bed was not firm which provided me with a backache each morning. Extended Stay Guests have to take out the trash. No Kleenex and no change machine to operate the washers and dryers when the staff is not available behind the front desk working banker hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Elevator doesn't work including the hotel staff.  The hotel staff looks for a reason not to do something. Value Place nickels and dimes guests for additional funds for pots and pans and dishes, internet service, room cleaning etc. The bed was not firm which provided me with a backache each morning. Extended Stay Guests have to take out the trash. No Kleenex and no change machine to operate the washers and dryers when the staff is not available behind the front desk working banker hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r356374864-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356374864</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Don't Care</t>
+  </si>
+  <si>
+    <t>On top on not fixing the elevator so it will stop buzzing every time it is used, they recently had to lower the weekly rate to $299.00 from $329.00, but they refuse to lower the monthly rate. Finally fixed broken $50/month wifi after months of denying there was a problem. Owners just don't care. Got my own bug spray after repeated treatments failed to solve the problem. I treated once and bugs are gone. Everything is done as cheaply as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>On top on not fixing the elevator so it will stop buzzing every time it is used, they recently had to lower the weekly rate to $299.00 from $329.00, but they refuse to lower the monthly rate. Finally fixed broken $50/month wifi after months of denying there was a problem. Owners just don't care. Got my own bug spray after repeated treatments failed to solve the problem. I treated once and bugs are gone. Everything is done as cheaply as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r317293224-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317293224</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>For a cheap stay while working out of town</t>
+  </si>
+  <si>
+    <t>This place is not bad once you understand the reasoning for this chain hotel. One it is for the working person who wants a cheap place to stay. So this hotel does have the comfort of other hotels like free WIFI, daily room cleaning, and free breakfast. Wifi and cleaning is an extra cost. To keep cheap rates the hotel doesn't employ many employees, no pools, and no downstairs lobby. It is strictly for the out of town workers. I like the mini kitchen in every room. The rooms are clean and up to date, MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>This place is not bad once you understand the reasoning for this chain hotel. One it is for the working person who wants a cheap place to stay. So this hotel does have the comfort of other hotels like free WIFI, daily room cleaning, and free breakfast. Wifi and cleaning is an extra cost. To keep cheap rates the hotel doesn't employ many employees, no pools, and no downstairs lobby. It is strictly for the out of town workers. I like the mini kitchen in every room. The rooms are clean and up to date, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r293384254-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293384254</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>not worth the price</t>
+  </si>
+  <si>
+    <t>not bad inside but no security or cameras outside, had the 800 dollar stereo/gps unit stolen out of my truck and found out three more vehicles were broken into over the previous weekend. Not cost effective with loss. Save money by paying more for the room in a better area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>not bad inside but no security or cameras outside, had the 800 dollar stereo/gps unit stolen out of my truck and found out three more vehicles were broken into over the previous weekend. Not cost effective with loss. Save money by paying more for the room in a better area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r268009296-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268009296</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>best front desk ever</t>
+  </si>
+  <si>
+    <t>from the time the front desk girl checked me in. to the smiling faces every morning. i stayed at the location for about 2 weeks and for my whole stay the fron desk girl. who i believe her name is orianna. she was very respectful from the time she checked me in. every time i would need towels sheets or anything she was always very polite. definitely made my stay worth it. and will be returning again and hopefully to see her again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>from the time the front desk girl checked me in. to the smiling faces every morning. i stayed at the location for about 2 weeks and for my whole stay the fron desk girl. who i believe her name is orianna. she was very respectful from the time she checked me in. every time i would need towels sheets or anything she was always very polite. definitely made my stay worth it. and will be returning again and hopefully to see her again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r254718972-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254718972</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>Everyone was wonderful.   It began at the front desk.  It was our first stay here.  It was very nice.  We checked out and discovered that my husband had left his kindle behind.  We called and they found it and gave it to us when we returned.  Wonderful!!!  Thank you again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Houston I-10 West, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Everyone was wonderful.   It began at the front desk.  It was our first stay here.  It was very nice.  We checked out and discovered that my husband had left his kindle behind.  We called and they found it and gave it to us when we returned.  Wonderful!!!  Thank you again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r249218963-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249218963</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Not worth 5 stars..</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for three weeks. We both had issues from the beginning with the wifi. The front desk lady gave us a number to call and they fixed the problem but only for a day. I had to call back a total of five times during my stay which is five times too many. Another problem was that during the three weeks we were here for, the room was only cleaned once. All she did was give us new towels, take out the trash, give us some garbage bags, and straighten up the bed. That's not cleaning. Another problem was that both cards that we need to access our room and open up the front door broke and I had to ask for replacements. Also there wasn't always someone at the front desk. The good things about this place is that it's conveniently located by a lot of restaurants, they offer you your own pots and pans so you can make your own food and it is relatively cheap. MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for three weeks. We both had issues from the beginning with the wifi. The front desk lady gave us a number to call and they fixed the problem but only for a day. I had to call back a total of five times during my stay which is five times too many. Another problem was that during the three weeks we were here for, the room was only cleaned once. All she did was give us new towels, take out the trash, give us some garbage bags, and straighten up the bed. That's not cleaning. Another problem was that both cards that we need to access our room and open up the front door broke and I had to ask for replacements. Also there wasn't always someone at the front desk. The good things about this place is that it's conveniently located by a lot of restaurants, they offer you your own pots and pans so you can make your own food and it is relatively cheap. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r228214109-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228214109</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>worst manager</t>
+  </si>
+  <si>
+    <t>I recently stayed at this place, twice, the first time was 2 and a half weeks ago. WONDERFUL experience with the female manager. I loved it so much I came back on the 6th. The manager that was there, male, I don't want to say names because I may be wrong, was rude and disrespectful. The most unprofessional manager I've had the displeasure of coming across. He SWORE AT A CUSTOMER AND he yelled at this staff in front of customers. My CHILDREN were standing there which made it all the more horrifying. Just R.U.D.E. I really liked my first visit, but I will NEVER go there again as long as he works there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this place, twice, the first time was 2 and a half weeks ago. WONDERFUL experience with the female manager. I loved it so much I came back on the 6th. The manager that was there, male, I don't want to say names because I may be wrong, was rude and disrespectful. The most unprofessional manager I've had the displeasure of coming across. He SWORE AT A CUSTOMER AND he yelled at this staff in front of customers. My CHILDREN were standing there which made it all the more horrifying. Just R.U.D.E. I really liked my first visit, but I will NEVER go there again as long as he works there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r227962378-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227962378</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>My 1st time staying here and really like it i been here for a month and plan to stay here for a while. The people working here give great service everything is very clean and its peaceful i like that a lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r228037473-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228037473</t>
+  </si>
+  <si>
+    <t>Good Experiance</t>
+  </si>
+  <si>
+    <t>Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r221431241-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221431241</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Everyone needs a Carliss Thomas !</t>
+  </si>
+  <si>
+    <t>This is our first time staying at an extended stay. Unfortunately, we are waiting till on keys to our new place which will not be ready until the 1st of September. We went on line and located similar places in our area. With myself and Glenn being in the industry where customer services takes part it was important to see the reviews on the individual places that we searched. Glenn came across a posting that caught his eye about the staff then another read Carliss making the place feel great and that Value Place sure was lucky to have her. 
+After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer...This is our first time staying at an extended stay. Unfortunately, we are waiting till on keys to our new place which will not be ready until the 1st of September. We went on line and located similar places in our area. With myself and Glenn being in the industry where customer services takes part it was important to see the reviews on the individual places that we searched. Glenn came across a posting that caught his eye about the staff then another read Carliss making the place feel great and that Value Place sure was lucky to have her. After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer Service! She has Fabulous people skills and is very genuine. We have been at Value Place almost a week and the stay has been far from what we expected with the thought of having to stay at ANY extended stay. The staff, and the visitors here really make you feel welcome when ending the day. Everyone seems to know each other and feel comfortable. So YES We agree .... Value Place is definitely, extremely lucky to have Carliss working for them. Any one would be... She definitely needs to be acknowledged! A Raise... A Bonus! SOMETHING.  In coming across her and her boss the other morning in the staircase. She wasn't very welcoming. I was surprised to discover she was her boss.  Everyone needs a Carliss on their property. And I actually am in property management of 5 properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This is our first time staying at an extended stay. Unfortunately, we are waiting till on keys to our new place which will not be ready until the 1st of September. We went on line and located similar places in our area. With myself and Glenn being in the industry where customer services takes part it was important to see the reviews on the individual places that we searched. Glenn came across a posting that caught his eye about the staff then another read Carliss making the place feel great and that Value Place sure was lucky to have her. 
+After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer...This is our first time staying at an extended stay. Unfortunately, we are waiting till on keys to our new place which will not be ready until the 1st of September. We went on line and located similar places in our area. With myself and Glenn being in the industry where customer services takes part it was important to see the reviews on the individual places that we searched. Glenn came across a posting that caught his eye about the staff then another read Carliss making the place feel great and that Value Place sure was lucky to have her. After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer Service! She has Fabulous people skills and is very genuine. We have been at Value Place almost a week and the stay has been far from what we expected with the thought of having to stay at ANY extended stay. The staff, and the visitors here really make you feel welcome when ending the day. Everyone seems to know each other and feel comfortable. So YES We agree .... Value Place is definitely, extremely lucky to have Carliss working for them. Any one would be... She definitely needs to be acknowledged! A Raise... A Bonus! SOMETHING.  In coming across her and her boss the other morning in the staircase. She wasn't very welcoming. I was surprised to discover she was her boss.  Everyone needs a Carliss on their property. And I actually am in property management of 5 properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r217266018-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217266018</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Home away From Home</t>
+  </si>
+  <si>
+    <t>I have been Staying at the hotel for over a year and I have seen people come and go. One thing Has always said the same The staff has always made my family and I feel at home. They are always on top of things and always willing to help. Corliss and Dave have especially made an impact on my stay. They always go the extra MILE to make sure everything I need is handled promtly. Thank You Dave and Corliss You guys Make a Difference Everyday!!!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r217149743-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217149743</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Carliss Thomas</t>
+  </si>
+  <si>
+    <t>Carliss is one of the employees who work at ValuePlace.  Beginning on the first day I met her when I arrived at the extended stay, she made me feel very welcome and she was extremely helpful.  She explains the rules of the hotel and do her best to make everyone feel safe.  Because she is so friendly, folks respect her authority when she asks them to abide by the rules of the house.  Value Place is very blessed to have an employee such as this!  It makes me feel pretty good that I chose this ValuePlace.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r147073550-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147073550</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>Take ALL your valuables from the car!</t>
+  </si>
+  <si>
+    <t>Cars get broken into on a regular basis here.  There is no camera in the parking lot.  The management says to get used to it.  1 manager (older guy) is very rude and unhelpful, the other younger seems OK.  I have seen cockroaches.  The keyed entry is finicky and causes problems getting in.  The bottom floor is not good for sleeping because of the cars.  Also they work 24 hours to clean rooms and you can hear it at night when they are vacuuming carpets.  The internet is slow as 56k from the 90's.  The good:  Room was acceptable and clean and didnt smell of smoke and the price was right.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded December 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2012</t>
+  </si>
+  <si>
+    <t>Cars get broken into on a regular basis here.  There is no camera in the parking lot.  The management says to get used to it.  1 manager (older guy) is very rude and unhelpful, the other younger seems OK.  I have seen cockroaches.  The keyed entry is finicky and causes problems getting in.  The bottom floor is not good for sleeping because of the cars.  Also they work 24 hours to clean rooms and you can hear it at night when they are vacuuming carpets.  The internet is slow as 56k from the 90's.  The good:  Room was acceptable and clean and didnt smell of smoke and the price was right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r137448639-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137448639</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights at the end of July/beginning of August 2012. Really, you get what you pay for. I didn't have any issues with rude staff, they just never seemed in a hurry. Had to wait a long time to check in - I think they could have been faster. Never saw any bugs. Seemed safe enough, bed was comfortable enough. My biggest complaint was the pillows. Lumpiest pillows I've ever encountered. Absolutely horrible. I luckily had brought my own but the pillows they provided were so uncomfortable that I would have gone out and bought my own pillow if I hadn't brought mine with me. I told the front desk about the pillows and they said that it's because they are washed so much because they are trying to focus on cleanliness. That's good that they want their pillows to be clean, but I've never had the lumpy pillow issue with other hotels and I assume they keep their pillows clean too. Bathroom could have been cleaner - found 2 hairs in the shower area and the shower curtain (the inside facing the tub) had little brown stains on it. It needed replacing. Showerhead was old and needed to be cleaned - water pressure was no good. Toilet had some mold or mildew growth up under the lip of the bowl near the top. They advertise a full kitchen but there is no oven (which could be...Stayed here for 5 nights at the end of July/beginning of August 2012. Really, you get what you pay for. I didn't have any issues with rude staff, they just never seemed in a hurry. Had to wait a long time to check in - I think they could have been faster. Never saw any bugs. Seemed safe enough, bed was comfortable enough. My biggest complaint was the pillows. Lumpiest pillows I've ever encountered. Absolutely horrible. I luckily had brought my own but the pillows they provided were so uncomfortable that I would have gone out and bought my own pillow if I hadn't brought mine with me. I told the front desk about the pillows and they said that it's because they are washed so much because they are trying to focus on cleanliness. That's good that they want their pillows to be clean, but I've never had the lumpy pillow issue with other hotels and I assume they keep their pillows clean too. Bathroom could have been cleaner - found 2 hairs in the shower area and the shower curtain (the inside facing the tub) had little brown stains on it. It needed replacing. Showerhead was old and needed to be cleaned - water pressure was no good. Toilet had some mold or mildew growth up under the lip of the bowl near the top. They advertise a full kitchen but there is no oven (which could be an issue for people staying a really long time) and there are no pots, pans, or utensils! You have to pay extra for these which I think should be included. I don't think a full kitchen should be advertised if there is nothing to cook with included. Only a small cutting board is included. It would be nice if they had a closed top trash can in the kitchen area - they only had a smallish open top one which gets smelly quickly - you have to stay on top of taking out your trash since housekeeping only comes every other week. There was a good choice of TV channels to pick from. Overall, it wasn't that bad (for a shorter stay at least) - I'm sure there are much worse places to stay than this particular hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights at the end of July/beginning of August 2012. Really, you get what you pay for. I didn't have any issues with rude staff, they just never seemed in a hurry. Had to wait a long time to check in - I think they could have been faster. Never saw any bugs. Seemed safe enough, bed was comfortable enough. My biggest complaint was the pillows. Lumpiest pillows I've ever encountered. Absolutely horrible. I luckily had brought my own but the pillows they provided were so uncomfortable that I would have gone out and bought my own pillow if I hadn't brought mine with me. I told the front desk about the pillows and they said that it's because they are washed so much because they are trying to focus on cleanliness. That's good that they want their pillows to be clean, but I've never had the lumpy pillow issue with other hotels and I assume they keep their pillows clean too. Bathroom could have been cleaner - found 2 hairs in the shower area and the shower curtain (the inside facing the tub) had little brown stains on it. It needed replacing. Showerhead was old and needed to be cleaned - water pressure was no good. Toilet had some mold or mildew growth up under the lip of the bowl near the top. They advertise a full kitchen but there is no oven (which could be...Stayed here for 5 nights at the end of July/beginning of August 2012. Really, you get what you pay for. I didn't have any issues with rude staff, they just never seemed in a hurry. Had to wait a long time to check in - I think they could have been faster. Never saw any bugs. Seemed safe enough, bed was comfortable enough. My biggest complaint was the pillows. Lumpiest pillows I've ever encountered. Absolutely horrible. I luckily had brought my own but the pillows they provided were so uncomfortable that I would have gone out and bought my own pillow if I hadn't brought mine with me. I told the front desk about the pillows and they said that it's because they are washed so much because they are trying to focus on cleanliness. That's good that they want their pillows to be clean, but I've never had the lumpy pillow issue with other hotels and I assume they keep their pillows clean too. Bathroom could have been cleaner - found 2 hairs in the shower area and the shower curtain (the inside facing the tub) had little brown stains on it. It needed replacing. Showerhead was old and needed to be cleaned - water pressure was no good. Toilet had some mold or mildew growth up under the lip of the bowl near the top. They advertise a full kitchen but there is no oven (which could be an issue for people staying a really long time) and there are no pots, pans, or utensils! You have to pay extra for these which I think should be included. I don't think a full kitchen should be advertised if there is nothing to cook with included. Only a small cutting board is included. It would be nice if they had a closed top trash can in the kitchen area - they only had a smallish open top one which gets smelly quickly - you have to stay on top of taking out your trash since housekeeping only comes every other week. There was a good choice of TV channels to pick from. Overall, it wasn't that bad (for a shorter stay at least) - I'm sure there are much worse places to stay than this particular hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r132894025-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132894025</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Gone downhill</t>
+  </si>
+  <si>
+    <t>I lived here for a year a while back and it was wonderful.  Moved back in a few months ago and things are horrible.  1) It's overrun with roaches 2) Rude employees - Mr. Robinson is unspeakably rude.  I waited at the counter to pay for internet (very slow) and was ignored by Danielle while she had a personal discussion with another employee - I finally had to interrupt 3) Nothing ever happens when it's supposed to - my room was supposed to be cleaned 6 days ago - still no sign of the housekeeper.  The ONLY positive I've experienced here is the maintenance guy, Jerome - he's courteous and helpful.  Management here is hopeless - doesn't upper management read these reviews?MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I lived here for a year a while back and it was wonderful.  Moved back in a few months ago and things are horrible.  1) It's overrun with roaches 2) Rude employees - Mr. Robinson is unspeakably rude.  I waited at the counter to pay for internet (very slow) and was ignored by Danielle while she had a personal discussion with another employee - I finally had to interrupt 3) Nothing ever happens when it's supposed to - my room was supposed to be cleaned 6 days ago - still no sign of the housekeeper.  The ONLY positive I've experienced here is the maintenance guy, Jerome - he's courteous and helpful.  Management here is hopeless - doesn't upper management read these reviews?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r115511640-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115511640</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>might not b the place 4 u</t>
+  </si>
+  <si>
+    <t>ive been here 3 weeks the manger is nasty with an attitude no house keeping, they dont want to give u towels, they sheets dont b that clean wen they give them to you neither is the towels even though they always saying they washing thats why you have to wait to get them and they most likely wont give them to you basically my problem with value place is that they didnt tell us that we had to provide everything we need like im renting an apartment they really need look over their policies and the way they treat the people comes here so now they have to deal with another bad review because i know im not the only 1 that feel this way about value place in katy off of I10 they suck to me now i know not come here again or send any of my friends  :( ps i only stayed this long because of a situation im in but atleast its a place to stay)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>ive been here 3 weeks the manger is nasty with an attitude no house keeping, they dont want to give u towels, they sheets dont b that clean wen they give them to you neither is the towels even though they always saying they washing thats why you have to wait to get them and they most likely wont give them to you basically my problem with value place is that they didnt tell us that we had to provide everything we need like im renting an apartment they really need look over their policies and the way they treat the people comes here so now they have to deal with another bad review because i know im not the only 1 that feel this way about value place in katy off of I10 they suck to me now i know not come here again or send any of my friends  :( ps i only stayed this long because of a situation im in but atleast its a place to stay)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r35620520-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>35620520</t>
+  </si>
+  <si>
+    <t>07/23/2009</t>
+  </si>
+  <si>
+    <t>If you want a bare bones place to stay, this is it</t>
+  </si>
+  <si>
+    <t>This extended stay hotel makes you put down a $100 deposit.  They charge a weekly rate of $10 for internet.  They do not provide ANY kitchen items.  They do not provide hand towels.  They charge for every local call made from your room.  They do not provide toilet paper or trash bags.  You get no housekeeping unless you are willing to pay $25 for it.  They have a 19 inch basic TV.  This hotel is new but that is the only advantage for staying here.  They only have double beds, which is a foam mattress on top of wooden platform.  We had to purchase thick pillowtop mattress pad to be able to sleep on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>This extended stay hotel makes you put down a $100 deposit.  They charge a weekly rate of $10 for internet.  They do not provide ANY kitchen items.  They do not provide hand towels.  They charge for every local call made from your room.  They do not provide toilet paper or trash bags.  You get no housekeeping unless you are willing to pay $25 for it.  They have a 19 inch basic TV.  This hotel is new but that is the only advantage for staying here.  They only have double beds, which is a foam mattress on top of wooden platform.  We had to purchase thick pillowtop mattress pad to be able to sleep on it.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1086,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1118,1540 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_677.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r613536118-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1382899</t>
+  </si>
+  <si>
+    <t>613536118</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Horrible Service</t>
+  </si>
+  <si>
+    <t>HORRIBLE SERVICE. I DO NOT RECOMMEND TO ANYONE. They dont care about keeping you comfortable for your stay. I had a 1 month stay. About my 2nd week had the worst upstairs neighbors. 7am, 3am, 9pm...these people wouldn't sleep. They were ridiculously loud. Their steps would shake the lighting fixtures on the ceiling. Finally called front desk and told them. They said they will check on them. A couple days nothing changed. Called them again and offered for them to move me. They said no, they'll move them if they receive a 3rd complaint. My last week of stay...nothing changed so I called again. All they told me is they have extended their stay 1 more week. So I have to suck it up for 1 more week? Which was also my last week. Really upset with this stay. Never again staying here and you shouldn't either.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Houston I-10 West, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>HORRIBLE SERVICE. I DO NOT RECOMMEND TO ANYONE. They dont care about keeping you comfortable for your stay. I had a 1 month stay. About my 2nd week had the worst upstairs neighbors. 7am, 3am, 9pm...these people wouldn't sleep. They were ridiculously loud. Their steps would shake the lighting fixtures on the ceiling. Finally called front desk and told them. They said they will check on them. A couple days nothing changed. Called them again and offered for them to move me. They said no, they'll move them if they receive a 3rd complaint. My last week of stay...nothing changed so I called again. All they told me is they have extended their stay 1 more week. So I have to suck it up for 1 more week? Which was also my last week. Really upset with this stay. Never again staying here and you shouldn't either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r576848608-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576848608</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Roach Infested, Horrible Customer Service, Over charged for additional stays when only stayed 6hrs</t>
+  </si>
+  <si>
+    <t>Rep Sammy was horrible and needs Customer service training. We arrived for a late check-in and was given the wrong room, we went back down to the front desk and was told the room we have was for a double bed room, I showed the gentleman the room I paid for online with two beds in the room. He replied he told them to take that picture down. I told him that was false advertisement. He put us in a two double bed room and stated I had to be charged an additional $10 in the morning, and we could meet with the Manager Tracie, because there was nothing he could do at 1:15am.  My Best friend went to take a shower and noticed baby roaches in the bathroom and told me she just killed them and flushed them in the toilet. We made the decision to leave and get another hotel in the morning because we were already charged for that night. That morning she noticed another roach clawing thinking it was on my bed. I told her to take a picture so we could show management. She did this roach was big and crawling fast on the night stand between the beds. When 7:05 came I told the maintenance guy who was on duty all night we was not staying he came to ask why, when I explained about the roaches, his response was yea he knew they...Rep Sammy was horrible and needs Customer service training. We arrived for a late check-in and was given the wrong room, we went back down to the front desk and was told the room we have was for a double bed room, I showed the gentleman the room I paid for online with two beds in the room. He replied he told them to take that picture down. I told him that was false advertisement. He put us in a two double bed room and stated I had to be charged an additional $10 in the morning, and we could meet with the Manager Tracie, because there was nothing he could do at 1:15am.  My Best friend went to take a shower and noticed baby roaches in the bathroom and told me she just killed them and flushed them in the toilet. We made the decision to leave and get another hotel in the morning because we were already charged for that night. That morning she noticed another roach clawing thinking it was on my bed. I told her to take a picture so we could show management. She did this roach was big and crawling fast on the night stand between the beds. When 7:05 came I told the maintenance guy who was on duty all night we was not staying he came to ask why, when I explained about the roaches, his response was yea he knew they just  had an exterminator out the day before. Upon checking out I was told I would get a refund of the balance of $123.56 by the manager Ms. Tracey I would be refunded my funds that day. Yesterday as I went over my back statement I noticed I was charged the full 3 days  of $189.62 under restaurant and it was traced back to Wood Springs by my bank. They are crooks as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Houston I-10 West, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Rep Sammy was horrible and needs Customer service training. We arrived for a late check-in and was given the wrong room, we went back down to the front desk and was told the room we have was for a double bed room, I showed the gentleman the room I paid for online with two beds in the room. He replied he told them to take that picture down. I told him that was false advertisement. He put us in a two double bed room and stated I had to be charged an additional $10 in the morning, and we could meet with the Manager Tracie, because there was nothing he could do at 1:15am.  My Best friend went to take a shower and noticed baby roaches in the bathroom and told me she just killed them and flushed them in the toilet. We made the decision to leave and get another hotel in the morning because we were already charged for that night. That morning she noticed another roach clawing thinking it was on my bed. I told her to take a picture so we could show management. She did this roach was big and crawling fast on the night stand between the beds. When 7:05 came I told the maintenance guy who was on duty all night we was not staying he came to ask why, when I explained about the roaches, his response was yea he knew they...Rep Sammy was horrible and needs Customer service training. We arrived for a late check-in and was given the wrong room, we went back down to the front desk and was told the room we have was for a double bed room, I showed the gentleman the room I paid for online with two beds in the room. He replied he told them to take that picture down. I told him that was false advertisement. He put us in a two double bed room and stated I had to be charged an additional $10 in the morning, and we could meet with the Manager Tracie, because there was nothing he could do at 1:15am.  My Best friend went to take a shower and noticed baby roaches in the bathroom and told me she just killed them and flushed them in the toilet. We made the decision to leave and get another hotel in the morning because we were already charged for that night. That morning she noticed another roach clawing thinking it was on my bed. I told her to take a picture so we could show management. She did this roach was big and crawling fast on the night stand between the beds. When 7:05 came I told the maintenance guy who was on duty all night we was not staying he came to ask why, when I explained about the roaches, his response was yea he knew they just  had an exterminator out the day before. Upon checking out I was told I would get a refund of the balance of $123.56 by the manager Ms. Tracey I would be refunded my funds that day. Yesterday as I went over my back statement I noticed I was charged the full 3 days  of $189.62 under restaurant and it was traced back to Wood Springs by my bank. They are crooks as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r555332234-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555332234</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Worse than dial up</t>
+  </si>
+  <si>
+    <t>The "premium" internet pay service is slower than dial up. No bandwidth at all. Nothing to boost the signal. Finally shut off WiFi so I could get my email. This is a corporate problem. They are making money and don't care. Referred me to tech support line where after 3 calls the tech rep said nothing left for me to try. WTF?</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r524650501-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1382899</t>
-  </si>
-  <si>
     <t>524650501</t>
   </si>
   <si>
@@ -177,9 +258,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Janice T, Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded September 19, 2017</t>
   </si>
   <si>
@@ -207,9 +285,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded September 12, 2017</t>
   </si>
   <si>
@@ -243,6 +318,51 @@
     <t>Ms. Kisha is truly a sweetheart very polite(on the phone and in person) very sweet made me feel at home away from home(Memphis). Thank you so   much. When I'm in town again I'll definitely stay at Wood Spring.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r509791946-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509791946</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Monthly Stay</t>
+  </si>
+  <si>
+    <t>I found this hotel to be quite comfortable, if your plan to stay more than a few weeks. It has all the amenities of home, with an odd small space vibe. The staff is friendly, always warm greetings. If you ever check in, in the evening, say hello to Kisha, she's the best. Kind, informative, and helpful, checking in was smooth and hassle free. Got love it! MoreShow less</t>
+  </si>
+  <si>
+    <t>I found this hotel to be quite comfortable, if your plan to stay more than a few weeks. It has all the amenities of home, with an odd small space vibe. The staff is friendly, always warm greetings. If you ever check in, in the evening, say hello to Kisha, she's the best. Kind, informative, and helpful, checking in was smooth and hassle free. Got love it! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r498047091-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498047091</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Friendly  Professional and Clean site</t>
+  </si>
+  <si>
+    <t>My son and I arrived here the last week of June 2017 ; upon check in It was late I was welcomed by "Kisha"  who was found to be very kind, genuine, and attentive.  This is what in my opinion the customer needs  "Janice Todd-Jordan " has a very professional staff and clean facility. I would recommend this location especially to business travelers as well traveling families.  May your establishment continue to grow and expand in many ways.  Keep up the good work "kisha"MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Janice T, General Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>My son and I arrived here the last week of June 2017 ; upon check in It was late I was welcomed by "Kisha"  who was found to be very kind, genuine, and attentive.  This is what in my opinion the customer needs  "Janice Todd-Jordan " has a very professional staff and clean facility. I would recommend this location especially to business travelers as well traveling families.  May your establishment continue to grow and expand in many ways.  Keep up the good work "kisha"More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r459382602-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -261,9 +381,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded February 27, 2017</t>
   </si>
   <si>
@@ -324,30 +441,69 @@
     <t>Elevator doesn't work including the hotel staff.  The hotel staff looks for a reason not to do something. Value Place nickels and dimes guests for additional funds for pots and pans and dishes, internet service, room cleaning etc. The bed was not firm which provided me with a backache each morning. Extended Stay Guests have to take out the trash. No Kleenex and no change machine to operate the washers and dryers when the staff is not available behind the front desk working banker hours.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r375149633-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375149633</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>I would like to thank Oriana I did not get her last name but thank you for being so Kind and helpful ,she provided me with everything I need it the manager wasn't that helpful but other than that I will come back just because of that helpful young lady .MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>I would like to thank Oriana I did not get her last name but thank you for being so Kind and helpful ,she provided me with everything I need it the manager wasn't that helpful but other than that I will come back just because of that helpful young lady .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r356468412-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356468412</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Quick an easy! But a bit to far from the Airport...</t>
+  </si>
+  <si>
+    <t>Great Place to stay on  a budget!  I received a phone call prior to arrival to confirm check in time, i was advice to dial 500 as soon as i arrived. Great place to stay, only weird thing was the A/C units goes off and on. Snack and beverage machines work but only cash(credit card reader wasn't working). but over all great stay. Used the laundry room services provided to guest and was able to change a few dollars for quarters in the coke machine. XDMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay on  a budget!  I received a phone call prior to arrival to confirm check in time, i was advice to dial 500 as soon as i arrived. Great place to stay, only weird thing was the A/C units goes off and on. Snack and beverage machines work but only cash(credit card reader wasn't working). but over all great stay. Used the laundry room services provided to guest and was able to change a few dollars for quarters in the coke machine. XDMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r356374864-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
   </si>
   <si>
     <t>356374864</t>
   </si>
   <si>
-    <t>03/17/2016</t>
-  </si>
-  <si>
     <t>Don't Care</t>
   </si>
   <si>
     <t>On top on not fixing the elevator so it will stop buzzing every time it is used, they recently had to lower the weekly rate to $299.00 from $329.00, but they refuse to lower the monthly rate. Finally fixed broken $50/month wifi after months of denying there was a problem. Owners just don't care. Got my own bug spray after repeated treatments failed to solve the problem. I treated once and bugs are gone. Everything is done as cheaply as possible.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded March 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 25, 2016</t>
-  </si>
-  <si>
     <t>On top on not fixing the elevator so it will stop buzzing every time it is used, they recently had to lower the weekly rate to $299.00 from $329.00, but they refuse to lower the monthly rate. Finally fixed broken $50/month wifi after months of denying there was a problem. Owners just don't care. Got my own bug spray after repeated treatments failed to solve the problem. I treated once and bugs are gone. Everything is done as cheaply as possible.More</t>
   </si>
   <si>
@@ -405,6 +561,60 @@
     <t>not bad inside but no security or cameras outside, had the 800 dollar stereo/gps unit stolen out of my truck and found out three more vehicles were broken into over the previous weekend. Not cost effective with loss. Save money by paying more for the room in a better area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r281025612-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281025612</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>bad furniture, bad reservations</t>
+  </si>
+  <si>
+    <t>ValuePlace Houston on Katy Hwy.I would never stay there again.  While it seems to be a bargan at 300+ per week, the beds do not even have box springs.  It's like sleeping on a military 5 inch thick mattress.Nothing is included.  While there is a small kitchen, there's no cups, dishes, pot, pans, nothing unless you pay another 40-50 dollars to get a few dishes.  The furniture is cheap, well, everything is cheap and not very comfortable.I suffered the first week and when I ordered a second week, they said I was a no-show.  I was standing at the front counter, how could I be a no-show.  I was standing there!  They then charged my card for a no-show fee even though they turned me down for a room.  I will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>ValuePlace Houston on Katy Hwy.I would never stay there again.  While it seems to be a bargan at 300+ per week, the beds do not even have box springs.  It's like sleeping on a military 5 inch thick mattress.Nothing is included.  While there is a small kitchen, there's no cups, dishes, pot, pans, nothing unless you pay another 40-50 dollars to get a few dishes.  The furniture is cheap, well, everything is cheap and not very comfortable.I suffered the first week and when I ordered a second week, they said I was a no-show.  I was standing at the front counter, how could I be a no-show.  I was standing there!  They then charged my card for a no-show fee even though they turned me down for a room.  I will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r270461578-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270461578</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Excellent front desk service</t>
+  </si>
+  <si>
+    <t>I want to thank Bernard for his amazing service. He is very helpful and respectful. He worked beyond his work hours very patiently to complete all check-in formalities. During that particular day, there were lot of system issues. Bernard ensured that all issues were fixed and he went the extra mile to help me out. He is a great asset to Value Place, Baker Rd, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>I want to thank Bernard for his amazing service. He is very helpful and respectful. He worked beyond his work hours very patiently to complete all check-in formalities. During that particular day, there were lot of system issues. Bernard ensured that all issues were fixed and he went the extra mile to help me out. He is a great asset to Value Place, Baker Rd, TX.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r268009296-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -423,12 +633,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded June 2, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 2, 2015</t>
-  </si>
-  <si>
     <t>from the time the front desk girl checked me in. to the smiling faces every morning. i stayed at the location for about 2 weeks and for my whole stay the fron desk girl. who i believe her name is orianna. she was very respectful from the time she checked me in. every time i would need towels sheets or anything she was always very polite. definitely made my stay worth it. and will be returning again and hopefully to see her again.More</t>
   </si>
   <si>
@@ -477,6 +681,45 @@
     <t>My boyfriend and I stayed here for three weeks. We both had issues from the beginning with the wifi. The front desk lady gave us a number to call and they fixed the problem but only for a day. I had to call back a total of five times during my stay which is five times too many. Another problem was that during the three weeks we were here for, the room was only cleaned once. All she did was give us new towels, take out the trash, give us some garbage bags, and straighten up the bed. That's not cleaning. Another problem was that both cards that we need to access our room and open up the front door broke and I had to ask for replacements. Also there wasn't always someone at the front desk. The good things about this place is that it's conveniently located by a lot of restaurants, they offer you your own pots and pans so you can make your own food and it is relatively cheap. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r240650326-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240650326</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>Good people felt like home. i WAS confused about prices but the overall experience was great. the manager was sweet and helpful and so was the other two workers. However i didn't like like the fact they only cleaned by weekly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Good people felt like home. i WAS confused about prices but the overall experience was great. the manager was sweet and helpful and so was the other two workers. However i didn't like like the fact they only cleaned by weekly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r229482879-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229482879</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Noisy upstairs neighbors</t>
+  </si>
+  <si>
+    <t>The neighbors upstairs did not sleep at night.  They stomped around and slammed doors all through the night.  After complaining for several nights in a row, the hotel made me move to a new room, instead of the offenders. These neighbors had disturbed other guests before me.  The hotel staff would not have them move to the ground floor so that there would not be an issue for the people below them.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r228214109-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -492,9 +735,6 @@
     <t>I recently stayed at this place, twice, the first time was 2 and a half weeks ago. WONDERFUL experience with the female manager. I loved it so much I came back on the 6th. The manager that was there, male, I don't want to say names because I may be wrong, was rude and disrespectful. The most unprofessional manager I've had the displeasure of coming across. He SWORE AT A CUSTOMER AND he yelled at this staff in front of customers. My CHILDREN were standing there which made it all the more horrifying. Just R.U.D.E. I really liked my first visit, but I will NEVER go there again as long as he works there.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>I recently stayed at this place, twice, the first time was 2 and a half weeks ago. WONDERFUL experience with the female manager. I loved it so much I came back on the 6th. The manager that was there, male, I don't want to say names because I may be wrong, was rude and disrespectful. The most unprofessional manager I've had the displeasure of coming across. He SWORE AT A CUSTOMER AND he yelled at this staff in front of customers. My CHILDREN were standing there which made it all the more horrifying. Just R.U.D.E. I really liked my first visit, but I will NEVER go there again as long as he works there.More</t>
   </si>
   <si>
@@ -523,6 +763,39 @@
   </si>
   <si>
     <t>Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place . Good Value for each cent !!! I liked the place .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r226526338-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226526338</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels traveling for work. This is one of the friendliest hotels I've stayed at. The manager was so helpful and friendly, as well as all the staff. They were always "chipper" and were eager to help with whatever I needed. The cleanliness of the hotel jumped out at me as soon as I walked in. I've stayed at some "higher end" hotels and this place trumps them. Very pleased and next time I'm in Houston, I will be staying here again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r224833297-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224833297</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Tony &amp; Maryha SMe and my wife stayed here twice in the last month preparing to move to Houston for work. I normally don't write good reviews but I have to say we truly enjoyed our stay. I have to say whomever hired Leila the front desk clerk and Lauren the manger did a great job. Their customer service was the best we have ever experienced in our travels. Top notch. Also the room was great. I hope all your Value place's are this great as we plan on making them our preferred Hotel based on our experience.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r221431241-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
@@ -541,9 +814,6 @@
 After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer...This is our first time staying at an extended stay. Unfortunately, we are waiting till on keys to our new place which will not be ready until the 1st of September. We went on line and located similar places in our area. With myself and Glenn being in the industry where customer services takes part it was important to see the reviews on the individual places that we searched. Glenn came across a posting that caught his eye about the staff then another read Carliss making the place feel great and that Value Place sure was lucky to have her. After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer Service! She has Fabulous people skills and is very genuine. We have been at Value Place almost a week and the stay has been far from what we expected with the thought of having to stay at ANY extended stay. The staff, and the visitors here really make you feel welcome when ending the day. Everyone seems to know each other and feel comfortable. So YES We agree .... Value Place is definitely, extremely lucky to have Carliss working for them. Any one would be... She definitely needs to be acknowledged! A Raise... A Bonus! SOMETHING.  In coming across her and her boss the other morning in the staircase. She wasn't very welcoming. I was surprised to discover she was her boss.  Everyone needs a Carliss on their property. And I actually am in property management of 5 properties.MoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>This is our first time staying at an extended stay. Unfortunately, we are waiting till on keys to our new place which will not be ready until the 1st of September. We went on line and located similar places in our area. With myself and Glenn being in the industry where customer services takes part it was important to see the reviews on the individual places that we searched. Glenn came across a posting that caught his eye about the staff then another read Carliss making the place feel great and that Value Place sure was lucky to have her. 
 After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer...This is our first time staying at an extended stay. Unfortunately, we are waiting till on keys to our new place which will not be ready until the 1st of September. We went on line and located similar places in our area. With myself and Glenn being in the industry where customer services takes part it was important to see the reviews on the individual places that we searched. Glenn came across a posting that caught his eye about the staff then another read Carliss making the place feel great and that Value Place sure was lucky to have her. After reading that our decision was made up. We were definitely going with the experience people had at this location whether or not is was based on the service of one individual . With it being so late we called and were given prices on the weekly stay rates, location and directions as to what we needed to do in order to obtain a key to a room. Once we got there we followed the directions and Carliss came down to help us. She explained everything thoroughly, about check in and check out. The only room available was the 4th floor where there is smoking. She let us see the room before we decided to commit then, gave the option to switch us to another room the following day as she was expecting someone to be checking out. Fabulous Customer Service! She has Fabulous people skills and is very genuine. We have been at Value Place almost a week and the stay has been far from what we expected with the thought of having to stay at ANY extended stay. The staff, and the visitors here really make you feel welcome when ending the day. Everyone seems to know each other and feel comfortable. So YES We agree .... Value Place is definitely, extremely lucky to have Carliss working for them. Any one would be... She definitely needs to be acknowledged! A Raise... A Bonus! SOMETHING.  In coming across her and her boss the other morning in the staircase. She wasn't very welcoming. I was surprised to discover she was her boss.  Everyone needs a Carliss on their property. And I actually am in property management of 5 properties.More</t>
   </si>
@@ -584,6 +854,48 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r195341600-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195341600</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Service clean rooms safe environment</t>
+  </si>
+  <si>
+    <t>I love this place the staff was awesome I had no problems the month I was there. Rooms are clean no in out traffic at all this is a must stay it was well worth it!! If you are ever in this area wether for along term or short this is the place that I truly recommend customer service is a A plusMoreShow less</t>
+  </si>
+  <si>
+    <t>Ricky R, General Manager at WoodSpring Suites Houston I-10 West, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>I love this place the staff was awesome I had no problems the month I was there. Rooms are clean no in out traffic at all this is a must stay it was well worth it!! If you are ever in this area wether for along term or short this is the place that I truly recommend customer service is a A plusMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r184981347-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184981347</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Amjad  yazdanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed for 15 days and I enjoyed my stay, the beds were comfortable and there was no security issue till the duration I stayed. The staff was very cooperative. The security I found was very good. It is difficult to enter into the hotel without the electronic key. </t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r147073550-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -651,6 +963,54 @@
   </si>
   <si>
     <t>I lived here for a year a while back and it was wonderful.  Moved back in a few months ago and things are horrible.  1) It's overrun with roaches 2) Rude employees - Mr. Robinson is unspeakably rude.  I waited at the counter to pay for internet (very slow) and was ignored by Danielle while she had a personal discussion with another employee - I finally had to interrupt 3) Nothing ever happens when it's supposed to - my room was supposed to be cleaned 6 days ago - still no sign of the housekeeper.  The ONLY positive I've experienced here is the maintenance guy, Jerome - he's courteous and helpful.  Management here is hopeless - doesn't upper management read these reviews?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r131562463-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131562463</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>I stayed at this value place, in 2009 and I had the best time of my life, the manager that was there at that point was the sweetest person, and the staff was so enjoyable, they actually cared about us and our stay, I just stayed there 2 weeks ago and i was horrid, the sheets were nasty, the manager now ha!!! Ha!!! rude as sob, I will personally never stay at this value place again, actually no value places again, hey if they can tell me where that firsdt staff of people are working at now. I will go and give my business to them. do not do not do not stay at this property, if you want your moneys worth you'll go up the street a little bit more for better quality and softer beds lol. Value Place my @$$MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this value place, in 2009 and I had the best time of my life, the manager that was there at that point was the sweetest person, and the staff was so enjoyable, they actually cared about us and our stay, I just stayed there 2 weeks ago and i was horrid, the sheets were nasty, the manager now ha!!! Ha!!! rude as sob, I will personally never stay at this value place again, actually no value places again, hey if they can tell me where that firsdt staff of people are working at now. I will go and give my business to them. do not do not do not stay at this property, if you want your moneys worth you'll go up the street a little bit more for better quality and softer beds lol. Value Place my @$$More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r128540280-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128540280</t>
+  </si>
+  <si>
+    <t>04/24/2012</t>
+  </si>
+  <si>
+    <t>THOMAS --, EXTREMELY RUDE MANAGER</t>
+  </si>
+  <si>
+    <t>This red head manager has no clue on good communication skills, l had a problem with the slow and almost non-existant internet service that cost $10 per wk, local call that they charge for.A lady called Bonnie,she's welcoming, attentive @first l thought she was the manager.She deserves to be promoted to position of MANAGER l hope the owner of this location sees this review as the current manager is costing this location a lot of money due to his foul mouth.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>This red head manager has no clue on good communication skills, l had a problem with the slow and almost non-existant internet service that cost $10 per wk, local call that they charge for.A lady called Bonnie,she's welcoming, attentive @first l thought she was the manager.She deserves to be promoted to position of MANAGER l hope the owner of this location sees this review as the current manager is costing this location a lot of money due to his foul mouth.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1382899-r115511640-WoodSpring_Suites_Houston_I_10_West-Houston_Texas.html</t>
@@ -1227,7 +1587,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1235,18 +1595,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1294,7 +1648,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1304,10 +1658,10 @@
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
         <v>1</v>
       </c>
-      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>1</v>
@@ -1359,13 +1713,13 @@
         <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1376,14 +1730,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1399,7 +1749,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1408,43 +1758,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
         <v>82</v>
-      </c>
-      <c r="X5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1460,7 +1816,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1469,47 +1825,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
         <v>91</v>
-      </c>
-      <c r="X6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -1525,7 +1881,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1534,22 +1890,26 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
       <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1560,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
         <v>99</v>
-      </c>
-      <c r="X7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1582,7 +1942,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1591,25 +1951,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1621,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1643,7 +2003,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1652,25 +2012,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1682,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -1704,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1713,47 +2073,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1769,7 +2125,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1778,43 +2134,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -1830,7 +2190,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1839,49 +2199,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1897,7 +2247,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1906,49 +2256,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s"/>
       <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1964,7 +2304,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1973,39 +2313,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>154</v>
-      </c>
-      <c r="J14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>158</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -2021,7 +2369,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2030,45 +2378,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
         <v>161</v>
       </c>
-      <c r="J15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2430,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2093,49 +2439,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
         <v>166</v>
       </c>
-      <c r="J16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>167</v>
-      </c>
-      <c r="L16" t="s">
-        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -2151,7 +2491,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2160,45 +2500,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2214,7 +2556,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2223,43 +2565,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -2275,7 +2623,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2284,39 +2632,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
         <v>4</v>
       </c>
-      <c r="N19" t="s">
-        <v>187</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
@@ -2332,7 +2690,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2341,53 +2699,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -2403,7 +2751,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2412,49 +2760,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" t="s">
+        <v>213</v>
+      </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
@@ -2470,7 +2818,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2479,49 +2827,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>209</v>
-      </c>
-      <c r="O22" t="s">
-        <v>81</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
         <v>4</v>
       </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -2537,7 +2885,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2546,45 +2894,53 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
@@ -2600,7 +2956,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2609,41 +2965,35 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>3</v>
       </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2651,7 +3001,1100 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>297</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>298</v>
+      </c>
+      <c r="X35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>329</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>336</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58463</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
